--- a/Code/Results/Cases/Case_0_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_151/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03396337320689469</v>
+        <v>0.05353901873847633</v>
       </c>
       <c r="D2">
-        <v>0.006359931035358812</v>
+        <v>0.009189558092050021</v>
       </c>
       <c r="E2">
-        <v>0.05031746215744448</v>
+        <v>0.1049200150058525</v>
       </c>
       <c r="F2">
-        <v>2.937534511203111</v>
+        <v>5.014851781193272</v>
       </c>
       <c r="G2">
-        <v>0.0008501765670934875</v>
+        <v>0.002676194052642398</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.157488309372127</v>
+        <v>3.666749870973575</v>
       </c>
       <c r="J2">
-        <v>0.1303636501817564</v>
+        <v>0.266854974889938</v>
       </c>
       <c r="K2">
-        <v>5.004860169532151</v>
+        <v>4.277302916017447</v>
       </c>
       <c r="L2">
-        <v>0.09685155359130704</v>
+        <v>0.2137801060446165</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02994933996277638</v>
+        <v>0.05261101080957786</v>
       </c>
       <c r="D3">
-        <v>0.005642797578591541</v>
+        <v>0.008832666357061925</v>
       </c>
       <c r="E3">
-        <v>0.04666053956785809</v>
+        <v>0.1045429673066511</v>
       </c>
       <c r="F3">
-        <v>2.793026106378107</v>
+        <v>5.015863496769143</v>
       </c>
       <c r="G3">
-        <v>0.0008601757432021264</v>
+        <v>0.002682328664329303</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.052118253171784</v>
+        <v>3.667720534125863</v>
       </c>
       <c r="J3">
-        <v>0.1241536508568544</v>
+        <v>0.2670129980810927</v>
       </c>
       <c r="K3">
-        <v>4.379782781210565</v>
+        <v>4.138038142542996</v>
       </c>
       <c r="L3">
-        <v>0.09188591992564454</v>
+        <v>0.213768216936117</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02750167947394289</v>
+        <v>0.05205713464987127</v>
       </c>
       <c r="D4">
-        <v>0.005208050457188307</v>
+        <v>0.008613325950223683</v>
       </c>
       <c r="E4">
-        <v>0.0444766074013927</v>
+        <v>0.1043491347591861</v>
       </c>
       <c r="F4">
-        <v>2.711159247812091</v>
+        <v>5.019101157591194</v>
       </c>
       <c r="G4">
-        <v>0.0008664680241381701</v>
+        <v>0.002686291252334517</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.992518247877712</v>
+        <v>3.670243749718892</v>
       </c>
       <c r="J4">
-        <v>0.1205772478629115</v>
+        <v>0.2672231764451851</v>
       </c>
       <c r="K4">
-        <v>4.002748358791393</v>
+        <v>4.054779731679503</v>
       </c>
       <c r="L4">
-        <v>0.08898183457446862</v>
+        <v>0.213841315950539</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02650785879891515</v>
+        <v>0.05183547313176007</v>
       </c>
       <c r="D5">
-        <v>0.005031951825078096</v>
+        <v>0.008523908903537603</v>
       </c>
       <c r="E5">
-        <v>0.04360084544481602</v>
+        <v>0.1042796413062703</v>
       </c>
       <c r="F5">
-        <v>2.679383597263694</v>
+        <v>5.021076329582144</v>
       </c>
       <c r="G5">
-        <v>0.0008690727733535703</v>
+        <v>0.002687955477581665</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.969408582352955</v>
+        <v>3.671754975806166</v>
       </c>
       <c r="J5">
-        <v>0.1191748499874734</v>
+        <v>0.2673372526112132</v>
       </c>
       <c r="K5">
-        <v>3.850588486544552</v>
+        <v>4.021416905571357</v>
       </c>
       <c r="L5">
-        <v>0.08783219830545619</v>
+        <v>0.2138913328255043</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02634303681233519</v>
+        <v>0.05179891215360755</v>
       </c>
       <c r="D6">
-        <v>0.005002766208866305</v>
+        <v>0.008509059759044035</v>
       </c>
       <c r="E6">
-        <v>0.04345624990247998</v>
+        <v>0.1042686760663276</v>
       </c>
       <c r="F6">
-        <v>2.674199198987338</v>
+        <v>5.021443851991179</v>
       </c>
       <c r="G6">
-        <v>0.0008695078020171116</v>
+        <v>0.002688234812156401</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.965639510015535</v>
+        <v>3.672035038292577</v>
       </c>
       <c r="J6">
-        <v>0.118945182565696</v>
+        <v>0.2673579110396105</v>
       </c>
       <c r="K6">
-        <v>3.825406179365928</v>
+        <v>4.015911190582131</v>
       </c>
       <c r="L6">
-        <v>0.08764327157661</v>
+        <v>0.2139008601940731</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02748826260174297</v>
+        <v>0.05205412879904969</v>
       </c>
       <c r="D7">
-        <v>0.005205671627399155</v>
+        <v>0.008612120153498992</v>
       </c>
       <c r="E7">
-        <v>0.04446474059618133</v>
+        <v>0.1043481590732469</v>
       </c>
       <c r="F7">
-        <v>2.71072446526459</v>
+        <v>5.019125143015984</v>
       </c>
       <c r="G7">
-        <v>0.0008665029855864637</v>
+        <v>0.00268631349627237</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.992201944675315</v>
+        <v>3.670262177193166</v>
       </c>
       <c r="J7">
-        <v>0.1205581174953352</v>
+        <v>0.2672245998514384</v>
       </c>
       <c r="K7">
-        <v>4.000690537541857</v>
+        <v>4.054327499011436</v>
       </c>
       <c r="L7">
-        <v>0.08896619660188065</v>
+        <v>0.2138419085754464</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03257539763364292</v>
+        <v>0.05321576171184716</v>
       </c>
       <c r="D8">
-        <v>0.006111285189842164</v>
+        <v>0.009066555403791199</v>
       </c>
       <c r="E8">
-        <v>0.04904302039877706</v>
+        <v>0.1047822012540678</v>
       </c>
       <c r="F8">
-        <v>2.886195672980691</v>
+        <v>5.014656274545047</v>
       </c>
       <c r="G8">
-        <v>0.0008535939562893035</v>
+        <v>0.002678268711259572</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.120033064993009</v>
+        <v>3.666683572950774</v>
       </c>
       <c r="J8">
-        <v>0.1281705214368216</v>
+        <v>0.2668859601478104</v>
       </c>
       <c r="K8">
-        <v>4.787792223244992</v>
+        <v>4.228817017375093</v>
       </c>
       <c r="L8">
-        <v>0.09510768922982749</v>
+        <v>0.2137593260269952</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04271984890444003</v>
+        <v>0.05561837089006616</v>
       </c>
       <c r="D9">
-        <v>0.007949990473047563</v>
+        <v>0.009955337522342234</v>
       </c>
       <c r="E9">
-        <v>0.05857150564594349</v>
+        <v>0.1059315538301924</v>
       </c>
       <c r="F9">
-        <v>3.291787313092414</v>
+        <v>5.02675532618818</v>
       </c>
       <c r="G9">
-        <v>0.0008293815553680333</v>
+        <v>0.002664039370454601</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.416403932343201</v>
+        <v>3.675034963709237</v>
       </c>
       <c r="J9">
-        <v>0.1452014095099088</v>
+        <v>0.2671211744397795</v>
       </c>
       <c r="K9">
-        <v>6.395996937902567</v>
+        <v>4.588890451584518</v>
       </c>
       <c r="L9">
-        <v>0.1084328571646296</v>
+        <v>0.2142350570981577</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05033111282230607</v>
+        <v>0.05745755474458747</v>
       </c>
       <c r="D10">
-        <v>0.009371047131818244</v>
+        <v>0.01060603311495001</v>
       </c>
       <c r="E10">
-        <v>0.06600798771073713</v>
+        <v>0.1069570207183759</v>
       </c>
       <c r="F10">
-        <v>3.63842272631851</v>
+        <v>5.048512641484791</v>
       </c>
       <c r="G10">
-        <v>0.0008120915539737066</v>
+        <v>0.002654516595829473</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.670313882104679</v>
+        <v>3.690653403633064</v>
       </c>
       <c r="J10">
-        <v>0.1593544506246616</v>
+        <v>0.267844705351294</v>
       </c>
       <c r="K10">
-        <v>7.634551818807438</v>
+        <v>4.864446126579708</v>
       </c>
       <c r="L10">
-        <v>0.1192145086286942</v>
+        <v>0.2149733500469821</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05384283857378591</v>
+        <v>0.05830992165117976</v>
       </c>
       <c r="D11">
-        <v>0.0100419312704787</v>
+        <v>0.01090139217088648</v>
       </c>
       <c r="E11">
-        <v>0.06951206138257149</v>
+        <v>0.1074627122233167</v>
       </c>
       <c r="F11">
-        <v>3.809620670447515</v>
+        <v>5.061238048405755</v>
       </c>
       <c r="G11">
-        <v>0.0008042890234523768</v>
+        <v>0.002650384305059333</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.795867958331698</v>
+        <v>3.699842826400342</v>
       </c>
       <c r="J11">
-        <v>0.1662437238126202</v>
+        <v>0.2682940299432843</v>
       </c>
       <c r="K11">
-        <v>8.215020676325764</v>
+        <v>4.992219189850175</v>
       </c>
       <c r="L11">
-        <v>0.1243900131405695</v>
+        <v>0.2153936873841715</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05518118408100037</v>
+        <v>0.05863491448386782</v>
       </c>
       <c r="D12">
-        <v>0.01030045244415234</v>
+        <v>0.0110131303651535</v>
       </c>
       <c r="E12">
-        <v>0.07085896356773347</v>
+        <v>0.1076598277186989</v>
       </c>
       <c r="F12">
-        <v>3.876681742015847</v>
+        <v>5.066466089072833</v>
       </c>
       <c r="G12">
-        <v>0.0008013390323728271</v>
+        <v>0.002648848041549813</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.845073056878874</v>
+        <v>3.703624349652756</v>
       </c>
       <c r="J12">
-        <v>0.1689266615759166</v>
+        <v>0.2684815037769681</v>
       </c>
       <c r="K12">
-        <v>8.437735705215744</v>
+        <v>5.040953170658213</v>
       </c>
       <c r="L12">
-        <v>0.126394218496479</v>
+        <v>0.2155650071879833</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05489254269705413</v>
+        <v>0.05856482334630897</v>
       </c>
       <c r="D13">
-        <v>0.01024455908043009</v>
+        <v>0.0109890705739204</v>
       </c>
       <c r="E13">
-        <v>0.07056795036906394</v>
+        <v>0.1076171256171783</v>
       </c>
       <c r="F13">
-        <v>3.862134584433932</v>
+        <v>5.065321896370023</v>
       </c>
       <c r="G13">
-        <v>0.0008019742351644288</v>
+        <v>0.002649177636483333</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.834398221013132</v>
+        <v>3.702796482170712</v>
       </c>
       <c r="J13">
-        <v>0.1683453836135129</v>
+        <v>0.2684403567475897</v>
       </c>
       <c r="K13">
-        <v>8.389632916832738</v>
+        <v>5.030441894406579</v>
       </c>
       <c r="L13">
-        <v>0.1259605095790093</v>
+        <v>0.2155275701660884</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05395276505214497</v>
+        <v>0.05833661473774043</v>
       </c>
       <c r="D14">
-        <v>0.0100631041710777</v>
+        <v>0.01091058718531457</v>
       </c>
       <c r="E14">
-        <v>0.06962245527942912</v>
+        <v>0.1074788164674381</v>
       </c>
       <c r="F14">
-        <v>3.815091275874209</v>
+        <v>5.061659946612252</v>
       </c>
       <c r="G14">
-        <v>0.0008040462598755266</v>
+        <v>0.002650257344491242</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.799881460789067</v>
+        <v>3.700147877129538</v>
       </c>
       <c r="J14">
-        <v>0.166462907119211</v>
+        <v>0.2683091060783411</v>
       </c>
       <c r="K14">
-        <v>8.2332825310624</v>
+        <v>4.996221561880645</v>
       </c>
       <c r="L14">
-        <v>0.1245539775589251</v>
+        <v>0.2154075385248362</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05337828159496638</v>
+        <v>0.0581971183283656</v>
       </c>
       <c r="D15">
-        <v>0.009952571841907343</v>
+        <v>0.01086249936188821</v>
       </c>
       <c r="E15">
-        <v>0.06904599735591432</v>
+        <v>0.1073948296904454</v>
       </c>
       <c r="F15">
-        <v>3.786575912082213</v>
+        <v>5.059470263705464</v>
       </c>
       <c r="G15">
-        <v>0.0008053159007712436</v>
+        <v>0.00265092240948696</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.778962147897161</v>
+        <v>3.698564876695087</v>
       </c>
       <c r="J15">
-        <v>0.1653197875130346</v>
+        <v>0.2682309686595872</v>
       </c>
       <c r="K15">
-        <v>8.137906225349866</v>
+        <v>4.97530611103042</v>
       </c>
       <c r="L15">
-        <v>0.1236983864027437</v>
+        <v>0.2153355975738478</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05010272384672732</v>
+        <v>0.05740216334542225</v>
       </c>
       <c r="D16">
-        <v>0.009327772699798231</v>
+        <v>0.01058671641227704</v>
       </c>
       <c r="E16">
-        <v>0.06578163717736629</v>
+        <v>0.1069247600351986</v>
       </c>
       <c r="F16">
-        <v>3.62753017205759</v>
+        <v>5.047738128556801</v>
       </c>
       <c r="G16">
-        <v>0.0008126023717743613</v>
+        <v>0.002654790654101085</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.662328532008374</v>
+        <v>3.690094964099501</v>
       </c>
       <c r="J16">
-        <v>0.1589140565461307</v>
+        <v>0.2678177629230163</v>
       </c>
       <c r="K16">
-        <v>7.596996994074175</v>
+        <v>4.856144655810397</v>
       </c>
       <c r="L16">
-        <v>0.1188821718950095</v>
+        <v>0.214947579892268</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04810686484351123</v>
+        <v>0.05691848022381407</v>
       </c>
       <c r="D17">
-        <v>0.008951362398960327</v>
+        <v>0.01041735620274764</v>
       </c>
       <c r="E17">
-        <v>0.06381180301816158</v>
+        <v>0.1066464163140424</v>
       </c>
       <c r="F17">
-        <v>3.533613973065172</v>
+        <v>5.041266944679307</v>
       </c>
       <c r="G17">
-        <v>0.0008170855491423798</v>
+        <v>0.002657214718053421</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.593494851642674</v>
+        <v>3.68543421250186</v>
       </c>
       <c r="J17">
-        <v>0.1551060285818977</v>
+        <v>0.2675950864552661</v>
       </c>
       <c r="K17">
-        <v>7.269833811768081</v>
+        <v>4.783663750027699</v>
       </c>
       <c r="L17">
-        <v>0.1160005596278353</v>
+        <v>0.2147311805669077</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0469634440333877</v>
+        <v>0.05664175975783792</v>
       </c>
       <c r="D18">
-        <v>0.008737094046665561</v>
+        <v>0.01031988476855972</v>
       </c>
       <c r="E18">
-        <v>0.06269003917961413</v>
+        <v>0.1064900111056239</v>
       </c>
       <c r="F18">
-        <v>3.480848007343923</v>
+        <v>5.037810910953112</v>
       </c>
       <c r="G18">
-        <v>0.000819670358836011</v>
+        <v>0.002658627778983218</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.55483477750667</v>
+        <v>3.682949558753222</v>
       </c>
       <c r="J18">
-        <v>0.1529575708757775</v>
+        <v>0.2674783188060061</v>
       </c>
       <c r="K18">
-        <v>7.083231672708678</v>
+        <v>4.742202503954843</v>
       </c>
       <c r="L18">
-        <v>0.1143682623244686</v>
+        <v>0.2146146654703642</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04657704156129938</v>
+        <v>0.05654832259399001</v>
       </c>
       <c r="D19">
-        <v>0.008664903747323649</v>
+        <v>0.01028687279471541</v>
       </c>
       <c r="E19">
-        <v>0.06231208634677898</v>
+        <v>0.1064376893782395</v>
       </c>
       <c r="F19">
-        <v>3.463189292350819</v>
+        <v>5.036686369087562</v>
       </c>
       <c r="G19">
-        <v>0.0008205467197620114</v>
+        <v>0.002659109451860571</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.54189903000416</v>
+        <v>3.682141917197015</v>
       </c>
       <c r="J19">
-        <v>0.1522370620461402</v>
+        <v>0.2674407245387371</v>
       </c>
       <c r="K19">
-        <v>7.020308908722484</v>
+        <v>4.728203546810505</v>
       </c>
       <c r="L19">
-        <v>0.1138197585908429</v>
+        <v>0.2145765813022962</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04831884737200909</v>
+        <v>0.05696981610082474</v>
       </c>
       <c r="D20">
-        <v>0.008991194472944386</v>
+        <v>0.01043539119956094</v>
       </c>
       <c r="E20">
-        <v>0.06402031531703045</v>
+        <v>0.106675664619555</v>
       </c>
       <c r="F20">
-        <v>3.543479962128998</v>
+        <v>5.04192826277</v>
       </c>
       <c r="G20">
-        <v>0.0008166076947407162</v>
+        <v>0.002656954727352252</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.600724476027892</v>
+        <v>3.685910049224745</v>
       </c>
       <c r="J20">
-        <v>0.1555070087436263</v>
+        <v>0.2676176199105385</v>
       </c>
       <c r="K20">
-        <v>7.304494973973192</v>
+        <v>4.791355877985723</v>
       </c>
       <c r="L20">
-        <v>0.1163046746996983</v>
+        <v>0.2147533936502555</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05422855642033397</v>
+        <v>0.05840358519841971</v>
       </c>
       <c r="D21">
-        <v>0.010116271925245</v>
+        <v>0.01093364270294472</v>
       </c>
       <c r="E21">
-        <v>0.06989960541574902</v>
+        <v>0.1075192887862251</v>
       </c>
       <c r="F21">
-        <v>3.828845932049575</v>
+        <v>5.062724423762063</v>
       </c>
       <c r="G21">
-        <v>0.0008034375675732417</v>
+        <v>0.002649939434860341</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.809972923377245</v>
+        <v>3.700917633336118</v>
       </c>
       <c r="J21">
-        <v>0.1670137436168062</v>
+        <v>0.2683471870637817</v>
       </c>
       <c r="K21">
-        <v>8.279123657553498</v>
+        <v>5.006263421038682</v>
       </c>
       <c r="L21">
-        <v>0.1249658592577489</v>
+        <v>0.2154424650634112</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05814145496061229</v>
+        <v>0.05935355835913469</v>
       </c>
       <c r="D22">
-        <v>0.0108782312195892</v>
+        <v>0.01125864368636798</v>
       </c>
       <c r="E22">
-        <v>0.0738600276967496</v>
+        <v>0.108103403126762</v>
       </c>
       <c r="F22">
-        <v>4.028527456783593</v>
+        <v>5.078702289077768</v>
       </c>
       <c r="G22">
-        <v>0.0007948547585733607</v>
+        <v>0.002645520842856693</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.956532592630793</v>
+        <v>3.71248534400398</v>
       </c>
       <c r="J22">
-        <v>0.174971460066395</v>
+        <v>0.2689250014406213</v>
       </c>
       <c r="K22">
-        <v>8.933289861977983</v>
+        <v>5.148753206760773</v>
       </c>
       <c r="L22">
-        <v>0.1308880966158341</v>
+        <v>0.215963616227107</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05604790548905925</v>
+        <v>0.05884537020967429</v>
       </c>
       <c r="D23">
-        <v>0.0104687517142743</v>
+        <v>0.01108524742902262</v>
       </c>
       <c r="E23">
-        <v>0.07173453340430669</v>
+        <v>0.107788658117304</v>
       </c>
       <c r="F23">
-        <v>3.920640306936292</v>
+        <v>5.069955394760569</v>
       </c>
       <c r="G23">
-        <v>0.0007994349309499274</v>
+        <v>0.00264786396634566</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.877333761919104</v>
+        <v>3.706149808516713</v>
       </c>
       <c r="J23">
-        <v>0.1706808094368881</v>
+        <v>0.2686073553568207</v>
       </c>
       <c r="K23">
-        <v>8.582407665328049</v>
+        <v>5.072517173682911</v>
       </c>
       <c r="L23">
-        <v>0.1277013410730987</v>
+        <v>0.2156789897526252</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04822299763940663</v>
+        <v>0.05694660292611786</v>
       </c>
       <c r="D24">
-        <v>0.008973179812272747</v>
+        <v>0.01042723790000366</v>
       </c>
       <c r="E24">
-        <v>0.06392601370435713</v>
+        <v>0.1066624301892318</v>
       </c>
       <c r="F24">
-        <v>3.539015745714551</v>
+        <v>5.041628457706338</v>
       </c>
       <c r="G24">
-        <v>0.0008168237093771222</v>
+        <v>0.002657072208436799</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.597453133890653</v>
+        <v>3.685694316598159</v>
       </c>
       <c r="J24">
-        <v>0.1553255991230245</v>
+        <v>0.2676073974908064</v>
       </c>
       <c r="K24">
-        <v>7.288820060037096</v>
+        <v>4.787877616037747</v>
       </c>
       <c r="L24">
-        <v>0.1161671087348353</v>
+        <v>0.2147433265215781</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03995220641863995</v>
+        <v>0.05495526782093663</v>
       </c>
       <c r="D25">
-        <v>0.007442921486301657</v>
+        <v>0.009715242460501372</v>
       </c>
       <c r="E25">
-        <v>0.05592526853192581</v>
+        <v>0.1055887799553972</v>
       </c>
       <c r="F25">
-        <v>3.174414056605627</v>
+        <v>5.021233358128285</v>
       </c>
       <c r="G25">
-        <v>0.0008358302677355388</v>
+        <v>0.00266772438894185</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.330541621566738</v>
+        <v>3.671118696493082</v>
       </c>
       <c r="J25">
-        <v>0.1403347080853337</v>
+        <v>0.2669610157205327</v>
       </c>
       <c r="K25">
-        <v>5.952331185795913</v>
+        <v>4.489555026962023</v>
       </c>
       <c r="L25">
-        <v>0.1046707169636818</v>
+        <v>0.2140380927618963</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_151/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05353901873847633</v>
+        <v>0.03396337320690179</v>
       </c>
       <c r="D2">
-        <v>0.009189558092050021</v>
+        <v>0.006359931035266442</v>
       </c>
       <c r="E2">
-        <v>0.1049200150058525</v>
+        <v>0.05031746215745159</v>
       </c>
       <c r="F2">
-        <v>5.014851781193272</v>
+        <v>2.937534511203083</v>
       </c>
       <c r="G2">
-        <v>0.002676194052642398</v>
+        <v>0.0008501765670964448</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.666749870973575</v>
+        <v>2.157488309372113</v>
       </c>
       <c r="J2">
-        <v>0.266854974889938</v>
+        <v>0.1303636501816783</v>
       </c>
       <c r="K2">
-        <v>4.277302916017447</v>
+        <v>5.004860169532265</v>
       </c>
       <c r="L2">
-        <v>0.2137801060446165</v>
+        <v>0.09685155359139941</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05261101080957786</v>
+        <v>0.02994933996299665</v>
       </c>
       <c r="D3">
-        <v>0.008832666357061925</v>
+        <v>0.005642797578492065</v>
       </c>
       <c r="E3">
-        <v>0.1045429673066511</v>
+        <v>0.04666053956788652</v>
       </c>
       <c r="F3">
-        <v>5.015863496769143</v>
+        <v>2.793026106378136</v>
       </c>
       <c r="G3">
-        <v>0.002682328664329303</v>
+        <v>0.0008601757431427325</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.667720534125863</v>
+        <v>2.052118253171813</v>
       </c>
       <c r="J3">
-        <v>0.2670129980810927</v>
+        <v>0.1241536508569325</v>
       </c>
       <c r="K3">
-        <v>4.138038142542996</v>
+        <v>4.379782781210565</v>
       </c>
       <c r="L3">
-        <v>0.213768216936117</v>
+        <v>0.0918859199255877</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05205713464987127</v>
+        <v>0.02750167947417026</v>
       </c>
       <c r="D4">
-        <v>0.008613325950223683</v>
+        <v>0.00520805045707462</v>
       </c>
       <c r="E4">
-        <v>0.1043491347591861</v>
+        <v>0.04447660740138382</v>
       </c>
       <c r="F4">
-        <v>5.019101157591194</v>
+        <v>2.711159247812077</v>
       </c>
       <c r="G4">
-        <v>0.002686291252334517</v>
+        <v>0.0008664680241351874</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.670243749718892</v>
+        <v>1.992518247877669</v>
       </c>
       <c r="J4">
-        <v>0.2672231764451851</v>
+        <v>0.1205772478628617</v>
       </c>
       <c r="K4">
-        <v>4.054779731679503</v>
+        <v>4.002748358791337</v>
       </c>
       <c r="L4">
-        <v>0.213841315950539</v>
+        <v>0.0889818345744473</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05183547313176007</v>
+        <v>0.02650785879934858</v>
       </c>
       <c r="D5">
-        <v>0.008523908903537603</v>
+        <v>0.005031951825062109</v>
       </c>
       <c r="E5">
-        <v>0.1042796413062703</v>
+        <v>0.0436008454447947</v>
       </c>
       <c r="F5">
-        <v>5.021076329582144</v>
+        <v>2.679383597263723</v>
       </c>
       <c r="G5">
-        <v>0.002687955477581665</v>
+        <v>0.0008690727733513988</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.671754975806166</v>
+        <v>1.969408582352983</v>
       </c>
       <c r="J5">
-        <v>0.2673372526112132</v>
+        <v>0.119174849987381</v>
       </c>
       <c r="K5">
-        <v>4.021416905571357</v>
+        <v>3.850588486544552</v>
       </c>
       <c r="L5">
-        <v>0.2138913328255043</v>
+        <v>0.08783219830555566</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05179891215360755</v>
+        <v>0.02634303681231387</v>
       </c>
       <c r="D6">
-        <v>0.008509059759044035</v>
+        <v>0.005002766208969334</v>
       </c>
       <c r="E6">
-        <v>0.1042686760663276</v>
+        <v>0.0434562499025013</v>
       </c>
       <c r="F6">
-        <v>5.021443851991179</v>
+        <v>2.674199198987296</v>
       </c>
       <c r="G6">
-        <v>0.002688234812156401</v>
+        <v>0.0008695078022334934</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.672035038292577</v>
+        <v>1.965639510015521</v>
       </c>
       <c r="J6">
-        <v>0.2673579110396105</v>
+        <v>0.1189451825656604</v>
       </c>
       <c r="K6">
-        <v>4.015911190582131</v>
+        <v>3.825406179365871</v>
       </c>
       <c r="L6">
-        <v>0.2139008601940731</v>
+        <v>0.08764327157662422</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05205412879904969</v>
+        <v>0.02748826260192772</v>
       </c>
       <c r="D7">
-        <v>0.008612120153498992</v>
+        <v>0.0052056716272606</v>
       </c>
       <c r="E7">
-        <v>0.1043481590732469</v>
+        <v>0.04446474059619021</v>
       </c>
       <c r="F7">
-        <v>5.019125143015984</v>
+        <v>2.710724465264562</v>
       </c>
       <c r="G7">
-        <v>0.00268631349627237</v>
+        <v>0.0008665029855239578</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.670262177193166</v>
+        <v>1.992201944675315</v>
       </c>
       <c r="J7">
-        <v>0.2672245998514384</v>
+        <v>0.1205581174953494</v>
       </c>
       <c r="K7">
-        <v>4.054327499011436</v>
+        <v>4.0006905375418</v>
       </c>
       <c r="L7">
-        <v>0.2138419085754464</v>
+        <v>0.08896619660185223</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05321576171184716</v>
+        <v>0.03257539763364292</v>
       </c>
       <c r="D8">
-        <v>0.009066555403791199</v>
+        <v>0.006111285189948745</v>
       </c>
       <c r="E8">
-        <v>0.1047822012540678</v>
+        <v>0.0490430203987664</v>
       </c>
       <c r="F8">
-        <v>5.014656274545047</v>
+        <v>2.886195672980648</v>
       </c>
       <c r="G8">
-        <v>0.002678268711259572</v>
+        <v>0.0008535939562295099</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.666683572950774</v>
+        <v>2.120033064993009</v>
       </c>
       <c r="J8">
-        <v>0.2668859601478104</v>
+        <v>0.1281705214368145</v>
       </c>
       <c r="K8">
-        <v>4.228817017375093</v>
+        <v>4.787792223245049</v>
       </c>
       <c r="L8">
-        <v>0.2137593260269952</v>
+        <v>0.09510768922989143</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05561837089006616</v>
+        <v>0.04271984890441871</v>
       </c>
       <c r="D9">
-        <v>0.009955337522342234</v>
+        <v>0.007949990473040458</v>
       </c>
       <c r="E9">
-        <v>0.1059315538301924</v>
+        <v>0.05857150564594349</v>
       </c>
       <c r="F9">
-        <v>5.02675532618818</v>
+        <v>3.291787313092385</v>
       </c>
       <c r="G9">
-        <v>0.002664039370454601</v>
+        <v>0.0008293815553069527</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.675034963709237</v>
+        <v>2.416403932343187</v>
       </c>
       <c r="J9">
-        <v>0.2671211744397795</v>
+        <v>0.1452014095099514</v>
       </c>
       <c r="K9">
-        <v>4.588890451584518</v>
+        <v>6.395996937902623</v>
       </c>
       <c r="L9">
-        <v>0.2142350570981577</v>
+        <v>0.1084328571645585</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05745755474458747</v>
+        <v>0.05033111282207869</v>
       </c>
       <c r="D10">
-        <v>0.01060603311495001</v>
+        <v>0.009371047131821797</v>
       </c>
       <c r="E10">
-        <v>0.1069570207183759</v>
+        <v>0.0660079877107016</v>
       </c>
       <c r="F10">
-        <v>5.048512641484791</v>
+        <v>3.63842272631851</v>
       </c>
       <c r="G10">
-        <v>0.002654516595829473</v>
+        <v>0.0008120915540401617</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.690653403633064</v>
+        <v>2.670313882104693</v>
       </c>
       <c r="J10">
-        <v>0.267844705351294</v>
+        <v>0.1593544506244768</v>
       </c>
       <c r="K10">
-        <v>4.864446126579708</v>
+        <v>7.634551818807495</v>
       </c>
       <c r="L10">
-        <v>0.2149733500469821</v>
+        <v>0.1192145086285095</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05830992165117976</v>
+        <v>0.05384283857400618</v>
       </c>
       <c r="D11">
-        <v>0.01090139217088648</v>
+        <v>0.01004193127070252</v>
       </c>
       <c r="E11">
-        <v>0.1074627122233167</v>
+        <v>0.06951206138260702</v>
       </c>
       <c r="F11">
-        <v>5.061238048405755</v>
+        <v>3.809620670447487</v>
       </c>
       <c r="G11">
-        <v>0.002650384305059333</v>
+        <v>0.0008042890233926128</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.699842826400342</v>
+        <v>2.795867958331684</v>
       </c>
       <c r="J11">
-        <v>0.2682940299432843</v>
+        <v>0.1662437238125349</v>
       </c>
       <c r="K11">
-        <v>4.992219189850175</v>
+        <v>8.215020676325821</v>
       </c>
       <c r="L11">
-        <v>0.2153936873841715</v>
+        <v>0.1243900131405411</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05863491448386782</v>
+        <v>0.05518118408126327</v>
       </c>
       <c r="D12">
-        <v>0.0110131303651535</v>
+        <v>0.01030045244428379</v>
       </c>
       <c r="E12">
-        <v>0.1076598277186989</v>
+        <v>0.07085896356770149</v>
       </c>
       <c r="F12">
-        <v>5.066466089072833</v>
+        <v>3.876681742015847</v>
       </c>
       <c r="G12">
-        <v>0.002648848041549813</v>
+        <v>0.0008013390323714023</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.703624349652756</v>
+        <v>2.845073056878874</v>
       </c>
       <c r="J12">
-        <v>0.2684815037769681</v>
+        <v>0.1689266615758243</v>
       </c>
       <c r="K12">
-        <v>5.040953170658213</v>
+        <v>8.4377357052158</v>
       </c>
       <c r="L12">
-        <v>0.2155650071879833</v>
+        <v>0.1263942184965927</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05856482334630897</v>
+        <v>0.05489254269722466</v>
       </c>
       <c r="D13">
-        <v>0.0109890705739204</v>
+        <v>0.01024455908018496</v>
       </c>
       <c r="E13">
-        <v>0.1076171256171783</v>
+        <v>0.07056795036905328</v>
       </c>
       <c r="F13">
-        <v>5.065321896370023</v>
+        <v>3.862134584433932</v>
       </c>
       <c r="G13">
-        <v>0.002649177636483333</v>
+        <v>0.0008019742351030927</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.702796482170712</v>
+        <v>2.83439822101316</v>
       </c>
       <c r="J13">
-        <v>0.2684403567475897</v>
+        <v>0.16834538361352</v>
       </c>
       <c r="K13">
-        <v>5.030441894406579</v>
+        <v>8.389632916832568</v>
       </c>
       <c r="L13">
-        <v>0.2155275701660884</v>
+        <v>0.1259605095789311</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05833661473774043</v>
+        <v>0.05395276505215918</v>
       </c>
       <c r="D14">
-        <v>0.01091058718531457</v>
+        <v>0.01006310417072598</v>
       </c>
       <c r="E14">
-        <v>0.1074788164674381</v>
+        <v>0.06962245527943622</v>
       </c>
       <c r="F14">
-        <v>5.061659946612252</v>
+        <v>3.815091275874238</v>
       </c>
       <c r="G14">
-        <v>0.002650257344491242</v>
+        <v>0.0008040462598100531</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.700147877129538</v>
+        <v>2.799881460789067</v>
       </c>
       <c r="J14">
-        <v>0.2683091060783411</v>
+        <v>0.1664629071192536</v>
       </c>
       <c r="K14">
-        <v>4.996221561880645</v>
+        <v>8.23328253106223</v>
       </c>
       <c r="L14">
-        <v>0.2154075385248362</v>
+        <v>0.1245539775589037</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0581971183283656</v>
+        <v>0.05337828159552771</v>
       </c>
       <c r="D15">
-        <v>0.01086249936188821</v>
+        <v>0.00995257184215248</v>
       </c>
       <c r="E15">
-        <v>0.1073948296904454</v>
+        <v>0.0690459973559463</v>
       </c>
       <c r="F15">
-        <v>5.059470263705464</v>
+        <v>3.786575912082213</v>
       </c>
       <c r="G15">
-        <v>0.00265092240948696</v>
+        <v>0.0008053159007636941</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.698564876695087</v>
+        <v>2.778962147897175</v>
       </c>
       <c r="J15">
-        <v>0.2682309686595872</v>
+        <v>0.1653197875129706</v>
       </c>
       <c r="K15">
-        <v>4.97530611103042</v>
+        <v>8.137906225349752</v>
       </c>
       <c r="L15">
-        <v>0.2153355975738478</v>
+        <v>0.1236983864027721</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05740216334542225</v>
+        <v>0.05010272384675574</v>
       </c>
       <c r="D16">
-        <v>0.01058671641227704</v>
+        <v>0.00932777269978402</v>
       </c>
       <c r="E16">
-        <v>0.1069247600351986</v>
+        <v>0.06578163717735208</v>
       </c>
       <c r="F16">
-        <v>5.047738128556801</v>
+        <v>3.627530172057646</v>
       </c>
       <c r="G16">
-        <v>0.002654790654101085</v>
+        <v>0.0008126023717123726</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.690094964099501</v>
+        <v>2.662328532008416</v>
       </c>
       <c r="J16">
-        <v>0.2678177629230163</v>
+        <v>0.1589140565462301</v>
       </c>
       <c r="K16">
-        <v>4.856144655810397</v>
+        <v>7.596996994074232</v>
       </c>
       <c r="L16">
-        <v>0.214947579892268</v>
+        <v>0.118882171895109</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05691848022381407</v>
+        <v>0.04810686484376703</v>
       </c>
       <c r="D17">
-        <v>0.01041735620274764</v>
+        <v>0.008951362398825324</v>
       </c>
       <c r="E17">
-        <v>0.1066464163140424</v>
+        <v>0.06381180301815803</v>
       </c>
       <c r="F17">
-        <v>5.041266944679307</v>
+        <v>3.533613973065115</v>
       </c>
       <c r="G17">
-        <v>0.002657214718053421</v>
+        <v>0.0008170855491408003</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.68543421250186</v>
+        <v>2.593494851642689</v>
       </c>
       <c r="J17">
-        <v>0.2675950864552661</v>
+        <v>0.1551060285820682</v>
       </c>
       <c r="K17">
-        <v>4.783663750027699</v>
+        <v>7.269833811768081</v>
       </c>
       <c r="L17">
-        <v>0.2147311805669077</v>
+        <v>0.116000559627949</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05664175975783792</v>
+        <v>0.04696344403336639</v>
       </c>
       <c r="D18">
-        <v>0.01031988476855972</v>
+        <v>0.008737094046637139</v>
       </c>
       <c r="E18">
-        <v>0.1064900111056239</v>
+        <v>0.06269003917957505</v>
       </c>
       <c r="F18">
-        <v>5.037810910953112</v>
+        <v>3.480848007343894</v>
       </c>
       <c r="G18">
-        <v>0.002658627778983218</v>
+        <v>0.0008196703588332355</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.682949558753222</v>
+        <v>2.55483477750667</v>
       </c>
       <c r="J18">
-        <v>0.2674783188060061</v>
+        <v>0.1529575708758699</v>
       </c>
       <c r="K18">
-        <v>4.742202503954843</v>
+        <v>7.083231672708678</v>
       </c>
       <c r="L18">
-        <v>0.2146146654703642</v>
+        <v>0.1143682623243691</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05654832259399001</v>
+        <v>0.04657704156130649</v>
       </c>
       <c r="D19">
-        <v>0.01028687279471541</v>
+        <v>0.008664903747334307</v>
       </c>
       <c r="E19">
-        <v>0.1064376893782395</v>
+        <v>0.06231208634677898</v>
       </c>
       <c r="F19">
-        <v>5.036686369087562</v>
+        <v>3.463189292350819</v>
       </c>
       <c r="G19">
-        <v>0.002659109451860571</v>
+        <v>0.0008205467197628241</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.682141917197015</v>
+        <v>2.54189903000416</v>
       </c>
       <c r="J19">
-        <v>0.2674407245387371</v>
+        <v>0.1522370620460407</v>
       </c>
       <c r="K19">
-        <v>4.728203546810505</v>
+        <v>7.020308908722484</v>
       </c>
       <c r="L19">
-        <v>0.2145765813022962</v>
+        <v>0.113819758590779</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05696981610082474</v>
+        <v>0.04831884737227909</v>
       </c>
       <c r="D20">
-        <v>0.01043539119956094</v>
+        <v>0.00899119447292307</v>
       </c>
       <c r="E20">
-        <v>0.106675664619555</v>
+        <v>0.06402031531708374</v>
       </c>
       <c r="F20">
-        <v>5.04192826277</v>
+        <v>3.543479962128941</v>
       </c>
       <c r="G20">
-        <v>0.002656954727352252</v>
+        <v>0.0008166076947374737</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.685910049224745</v>
+        <v>2.600724476027892</v>
       </c>
       <c r="J20">
-        <v>0.2676176199105385</v>
+        <v>0.1555070087435979</v>
       </c>
       <c r="K20">
-        <v>4.791355877985723</v>
+        <v>7.304494973973249</v>
       </c>
       <c r="L20">
-        <v>0.2147533936502555</v>
+        <v>0.1163046746997765</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05840358519841971</v>
+        <v>0.05422855642088109</v>
       </c>
       <c r="D21">
-        <v>0.01093364270294472</v>
+        <v>0.01011627192560738</v>
       </c>
       <c r="E21">
-        <v>0.1075192887862251</v>
+        <v>0.06989960541570994</v>
       </c>
       <c r="F21">
-        <v>5.062724423762063</v>
+        <v>3.828845932049632</v>
       </c>
       <c r="G21">
-        <v>0.002649939434860341</v>
+        <v>0.0008034375676406532</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.700917633336118</v>
+        <v>2.809972923377245</v>
       </c>
       <c r="J21">
-        <v>0.2683471870637817</v>
+        <v>0.1670137436168559</v>
       </c>
       <c r="K21">
-        <v>5.006263421038682</v>
+        <v>8.279123657553498</v>
       </c>
       <c r="L21">
-        <v>0.2154424650634112</v>
+        <v>0.1249658592577347</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05935355835913469</v>
+        <v>0.05814145496087519</v>
       </c>
       <c r="D22">
-        <v>0.01125864368636798</v>
+        <v>0.01087823121956433</v>
       </c>
       <c r="E22">
-        <v>0.108103403126762</v>
+        <v>0.07386002769663591</v>
       </c>
       <c r="F22">
-        <v>5.078702289077768</v>
+        <v>4.028527456783564</v>
       </c>
       <c r="G22">
-        <v>0.002645520842856693</v>
+        <v>0.0007948547584974951</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.71248534400398</v>
+        <v>2.956532592630793</v>
       </c>
       <c r="J22">
-        <v>0.2689250014406213</v>
+        <v>0.1749714600663808</v>
       </c>
       <c r="K22">
-        <v>5.148753206760773</v>
+        <v>8.933289861977812</v>
       </c>
       <c r="L22">
-        <v>0.215963616227107</v>
+        <v>0.1308880966156707</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05884537020967429</v>
+        <v>0.05604790548904504</v>
       </c>
       <c r="D23">
-        <v>0.01108524742902262</v>
+        <v>0.01046875171424233</v>
       </c>
       <c r="E23">
-        <v>0.107788658117304</v>
+        <v>0.07173453340435643</v>
       </c>
       <c r="F23">
-        <v>5.069955394760569</v>
+        <v>3.920640306936292</v>
       </c>
       <c r="G23">
-        <v>0.00264786396634566</v>
+        <v>0.0007994349308977242</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.706149808516713</v>
+        <v>2.877333761919104</v>
       </c>
       <c r="J23">
-        <v>0.2686073553568207</v>
+        <v>0.170680809437016</v>
       </c>
       <c r="K23">
-        <v>5.072517173682911</v>
+        <v>8.582407665327878</v>
       </c>
       <c r="L23">
-        <v>0.2156789897526252</v>
+        <v>0.1277013410731129</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05694660292611786</v>
+        <v>0.04822299763914373</v>
       </c>
       <c r="D24">
-        <v>0.01042723790000366</v>
+        <v>0.008973179812141296</v>
       </c>
       <c r="E24">
-        <v>0.1066624301892318</v>
+        <v>0.06392601370438911</v>
       </c>
       <c r="F24">
-        <v>5.041628457706338</v>
+        <v>3.539015745714522</v>
       </c>
       <c r="G24">
-        <v>0.002657072208436799</v>
+        <v>0.0008168237093189774</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.685694316598159</v>
+        <v>2.59745313389061</v>
       </c>
       <c r="J24">
-        <v>0.2676073974908064</v>
+        <v>0.1553255991229676</v>
       </c>
       <c r="K24">
-        <v>4.787877616037747</v>
+        <v>7.288820060037153</v>
       </c>
       <c r="L24">
-        <v>0.2147433265215781</v>
+        <v>0.1161671087347997</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05495526782093663</v>
+        <v>0.03995220641838415</v>
       </c>
       <c r="D25">
-        <v>0.009715242460501372</v>
+        <v>0.007442921486411791</v>
       </c>
       <c r="E25">
-        <v>0.1055887799553972</v>
+        <v>0.0559252685319187</v>
       </c>
       <c r="F25">
-        <v>5.021233358128285</v>
+        <v>3.174414056605656</v>
       </c>
       <c r="G25">
-        <v>0.00266772438894185</v>
+        <v>0.000835830267852529</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.671118696493082</v>
+        <v>2.330541621566752</v>
       </c>
       <c r="J25">
-        <v>0.2669610157205327</v>
+        <v>0.1403347080853692</v>
       </c>
       <c r="K25">
-        <v>4.489555026962023</v>
+        <v>5.952331185795913</v>
       </c>
       <c r="L25">
-        <v>0.2140380927618963</v>
+        <v>0.1046707169635965</v>
       </c>
       <c r="M25">
         <v>0</v>
